--- a/library/export_abstract.xlsx
+++ b/library/export_abstract.xlsx
@@ -320,7 +320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EDF7"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -488,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -782,9 +782,42 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,9 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,46 +864,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,7 +1010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1042,7 +1045,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1256,8 +1259,8 @@
   </sheetPr>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1279,15 +1282,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
       <c r="K1" s="94"/>
@@ -1295,15 +1298,15 @@
       <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
       <c r="I2" s="95"/>
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
@@ -1311,15 +1314,15 @@
       <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1342,18 +1345,18 @@
     </row>
     <row r="5" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1364,10 +1367,10 @@
       <c r="D6" s="2"/>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="112"/>
+      <c r="H6" s="122"/>
       <c r="I6" s="97"/>
       <c r="J6" s="88"/>
     </row>
@@ -1380,23 +1383,23 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="114" t="s">
+      <c r="H7" s="124" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="98"/>
       <c r="J7" s="88"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
         <v>8</v>
@@ -1412,13 +1415,13 @@
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="127" t="s">
+      <c r="F9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="128" t="s">
+      <c r="H9" s="115" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1438,9 +1441,9 @@
       <c r="E10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="1:17" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="68"/>
@@ -1448,41 +1451,41 @@
       <c r="C11" s="70"/>
       <c r="D11" s="71"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="114"/>
     </row>
     <row r="12" spans="1:17" s="96" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="136"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="111"/>
       <c r="I12" s="102"/>
     </row>
     <row r="13" spans="1:17" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="136"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="111"/>
       <c r="I13" s="102"/>
     </row>
     <row r="14" spans="1:17" s="17" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="136"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="111"/>
     </row>
     <row r="15" spans="1:17" s="17" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
@@ -1493,7 +1496,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="105"/>
+      <c r="G15" s="137"/>
       <c r="H15" s="101"/>
     </row>
     <row r="16" spans="1:17" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,14 +1510,14 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
     </row>
     <row r="17" spans="1:13" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="125" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="23"/>
@@ -1526,7 +1529,7 @@
     </row>
     <row r="18" spans="1:13" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
-      <c r="B18" s="116"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="25"/>
@@ -1548,7 +1551,7 @@
     </row>
     <row r="20" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="131" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="35"/>
@@ -1560,7 +1563,7 @@
     </row>
     <row r="21" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90"/>
-      <c r="B21" s="121"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="35"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
@@ -1570,7 +1573,7 @@
     </row>
     <row r="22" spans="1:13" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
-      <c r="B22" s="122"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="35"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
@@ -1708,30 +1711,30 @@
       <c r="B33" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="118" t="s">
+      <c r="G33" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="129"/>
     </row>
     <row r="34" spans="1:13" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="120" t="s">
+      <c r="G34" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="120"/>
-      <c r="I34" s="119"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="129"/>
     </row>
     <row r="35" spans="1:13" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="74"/>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
       <c r="G35" s="77"/>
       <c r="H35" s="77"/>
       <c r="I35" s="76"/>
@@ -1742,12 +1745,12 @@
     <row r="36" spans="1:13" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="91"/>
       <c r="B36" s="74"/>
-      <c r="C36" s="109" t="s">
+      <c r="C36" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
       <c r="G36" s="75"/>
       <c r="H36" s="75"/>
       <c r="I36" s="75"/>
@@ -1764,11 +1767,11 @@
       <c r="D37" s="92"/>
       <c r="E37" s="92"/>
       <c r="F37" s="92"/>
-      <c r="G37" s="108" t="s">
+      <c r="G37" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
       <c r="J37" s="85"/>
       <c r="K37" s="85"/>
       <c r="L37" s="85"/>
@@ -1781,11 +1784,11 @@
       </c>
       <c r="C38" s="93"/>
       <c r="D38" s="93"/>
-      <c r="G38" s="109" t="s">
+      <c r="G38" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
       <c r="J38" s="78"/>
       <c r="K38" s="78"/>
       <c r="L38" s="78"/>
@@ -1807,17 +1810,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="20">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C35:F35"/>
@@ -1827,6 +1819,17 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.12" bottom="0.12" header="0.12" footer="0.12"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/library/export_abstract.xlsx
+++ b/library/export_abstract.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\fas2020\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8889174C-0825-4EB2-89DD-188764BECFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abstract of Quotations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Abstract of Quotations'!$A$1:$H$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Abstract of Quotations'!$A$1:$H$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Abstract of Quotations'!$9:$11</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -34,13 +35,13 @@
     <t>DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
   <si>
-    <t>RFQ NO.2021-0169</t>
+    <t>RFQ NO.2022-0001</t>
   </si>
   <si>
     <t>MODE OF PROCUREMENT:</t>
   </si>
   <si>
-    <t>ABC: Php 280.00</t>
+    <t>ABC: Php 45,500.00</t>
   </si>
   <si>
     <t>Small Value Procurement</t>
@@ -49,7 +50,7 @@
     <t>ABSTRACT OF QUOTATION/S</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-_____ </t>
+    <t>2022-2030</t>
   </si>
   <si>
     <t xml:space="preserve">Item </t>
@@ -65,17 +66,99 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>ELIGIBILITY REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>*In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation/proposal the following eligibility requirements.</t>
+  </si>
+  <si>
+    <t>1. Valid Business Permit 2022/ Expired Business or Mayor's permit with Official Receipt of renewal application, subject to submission of Mayor's Permit after award of Contract but before payment</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>2. PhilGEPS Registration No. (Please indicate on the space provided above)</t>
+  </si>
+  <si>
+    <t>3. Others:</t>
+  </si>
+  <si>
+    <t>a. Any documents to prove that the signatory of the quotation is authorized representative of the company,(e.g Secretary Certificate/ DTI Certificate, and the like) or</t>
+  </si>
+  <si>
+    <t>b. Photocopy of company ID bearing the pictures/signature of  the representative</t>
+  </si>
+  <si>
+    <t>4. Notarized Omnibus Sworn Statement</t>
+  </si>
+  <si>
+    <t>Not Required</t>
+  </si>
+  <si>
+    <t>REMARKS:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Award is hereby recommended to be given to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>Xyza Iel Kitchenette</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> which  has the lowest calculated and responsive bids </t>
+    </r>
+  </si>
+  <si>
+    <t>OTHERS</t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
+    <t>DON AYER A. ABRAZALDO</t>
+  </si>
+  <si>
+    <t>BAC Chairman</t>
+  </si>
+  <si>
+    <t>BAC Member</t>
+  </si>
+  <si>
+    <t>ATTY. JORDAN V. NADAL</t>
+  </si>
+  <si>
+    <t>BAC Vice Chairman</t>
+  </si>
+  <si>
+    <t>GILBERTO L. TUMAMAC</t>
+  </si>
+  <si>
+    <t>JAY-AR T. BELTRAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="\₱#,##0.00_-"/>
+    <numFmt numFmtId="164" formatCode="\₱#,##0.00_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -85,72 +168,56 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -177,14 +244,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFB3E5FC"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB3E5FC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -215,6 +282,52 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -242,37 +355,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -293,21 +375,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -315,7 +382,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -323,9 +390,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -343,160 +410,202 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,14 +630,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>1962150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="771525" cy="733425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 19"/>
+        <xdr:cNvPr id="2" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -561,7 +676,13 @@
     <xdr:ext cx="2076450" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -630,7 +751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -665,7 +786,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,83 +994,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="6" style="11" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="15" style="11" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="6" style="9" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="39.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15" style="9" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -959,143 +1080,395 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="23"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="45" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="68"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="35"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="52"/>
-    </row>
-    <row r="10" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="20"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="1:13" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="53"/>
-    </row>
-    <row r="11" spans="1:13" s="17" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="54"/>
-    </row>
-    <row r="12" spans="1:13" s="32" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="36"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" s="10" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+    </row>
+    <row r="12" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="1:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
+    </row>
+    <row r="34" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
+    </row>
+    <row r="35" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.12" bottom="0.12" header="0.12" footer="0.12"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>